--- a/performance_report.xlsx
+++ b/performance_report.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="性能数据详情" sheetId="1" r:id="rId1"/>
-    <sheet name="810EBME4DAN4" sheetId="2" r:id="rId2"/>
+    <sheet name="emulator-5554" sheetId="2" r:id="rId2"/>
+    <sheet name="810EBME4DAN4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -72,6 +73,45 @@
   </si>
   <si>
     <t>下行流量均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivo v3_x000D__x000D_
+_vivo_x000D__x000D_
+_5.1.1_x000D__x000D_
+</t>
+  </si>
+  <si>
+    <t>2核</t>
+  </si>
+  <si>
+    <t>2021M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720x1280</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>151秒</t>
+  </si>
+  <si>
+    <t>236%</t>
+  </si>
+  <si>
+    <t>114%</t>
+  </si>
+  <si>
+    <t>174M</t>
+  </si>
+  <si>
+    <t>75M</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>0KB</t>
   </si>
   <si>
     <t xml:space="preserve">m2 note_x000D__x000D_
@@ -80,46 +120,37 @@
 </t>
   </si>
   <si>
-    <t>2核</t>
-  </si>
-  <si>
     <t>1913M</t>
   </si>
   <si>
     <t xml:space="preserve"> 1080x1920</t>
   </si>
   <si>
-    <t>wifi</t>
-  </si>
-  <si>
-    <t>114秒</t>
-  </si>
-  <si>
-    <t>226%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>144M</t>
-  </si>
-  <si>
-    <t>75M</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>6KB</t>
-  </si>
-  <si>
-    <t>17KB</t>
-  </si>
-  <si>
-    <t>3KB</t>
-  </si>
-  <si>
-    <t>5KB</t>
+    <t>159秒</t>
+  </si>
+  <si>
+    <t>122%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>177M</t>
+  </si>
+  <si>
+    <t>77M</t>
+  </si>
+  <si>
+    <t>209KB</t>
+  </si>
+  <si>
+    <t>1017KB</t>
+  </si>
+  <si>
+    <t>9KB</t>
+  </si>
+  <si>
+    <t>33KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -247,75 +278,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$A$1:$A$22</c:f>
+              <c:f>emulator-5554!$A$1:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0</c:v>
+                <c:pt idx="22">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,6 +406,537 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>fps使用情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>810EBME4DAN4!$C$1:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>上行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>810EBME4DAN4!$E$1:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>下行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>810EBME4DAN4!$F$1:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -400,75 +989,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$B$1:$B$22</c:f>
+              <c:f>emulator-5554!$B$1:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>139</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>141</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>141</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>139</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>142</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>140</c:v>
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,10 +1169,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$D$1:$D$24</c:f>
+              <c:f>emulator-5554!$D$1:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -627,6 +1243,33 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -712,10 +1355,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$C$1:$C$22</c:f>
+              <c:f>emulator-5554!$C$1:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -780,6 +1423,33 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -865,75 +1535,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$E$1:$E$22</c:f>
+              <c:f>emulator-5554!$E$1:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29761</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29762</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29765</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29766</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29766</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29769</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29770</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29771</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29777</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29783</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29783</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29786</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29790</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29793</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29795</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29795</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29797</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29804</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,75 +1715,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$F$1:$F$22</c:f>
+              <c:f>emulator-5554!$F$1:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>885994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>885994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>885999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>886002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>886002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>886007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>886010</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>886014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>886022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>886038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>886041</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>886043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>886047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>886047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>886060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>886064</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>886064</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>886068</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>886070</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>886071</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>886082</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,19 +1861,556 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>cpu使用率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>810EBME4DAN4!$A$1:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>内存使用MB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>810EBME4DAN4!$B$1:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>电池剩余%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>810EBME4DAN4!$D$1:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1173,13 +2434,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1203,13 +2464,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1233,13 +2494,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1263,13 +2524,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1293,13 +2554,198 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1758,16 +3204,71 @@
         <v>30</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="5" spans="1:18" ht="30" customHeight="1"/>
     <row r="6" spans="1:18" ht="30" customHeight="1"/>
     <row r="7" spans="1:18" ht="30" customHeight="1"/>
@@ -1787,7 +3288,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,30 +3304,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
@@ -1835,18 +3336,18 @@
         <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>29761</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>885994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -1855,18 +3356,18 @@
         <v>100</v>
       </c>
       <c r="E3" s="2">
-        <v>29762</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>885994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -1875,18 +3376,18 @@
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>29765</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>885999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
@@ -1895,10 +3396,662 @@
         <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>29766</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>886002</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="2">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>217</v>
+      </c>
+      <c r="B12" s="2">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>236</v>
+      </c>
+      <c r="B13" s="2">
+        <v>172</v>
+      </c>
+      <c r="C13" s="2">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2">
+        <v>174</v>
+      </c>
+      <c r="C14" s="2">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>115</v>
+      </c>
+      <c r="B15" s="2">
+        <v>171</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>121</v>
+      </c>
+      <c r="B17" s="2">
+        <v>167</v>
+      </c>
+      <c r="C17" s="2">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>118</v>
+      </c>
+      <c r="B18" s="2">
+        <v>164</v>
+      </c>
+      <c r="C18" s="2">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>126</v>
+      </c>
+      <c r="B19" s="2">
+        <v>164</v>
+      </c>
+      <c r="C19" s="2">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2">
+        <v>165</v>
+      </c>
+      <c r="C20" s="2">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>119</v>
+      </c>
+      <c r="B21" s="2">
+        <v>164</v>
+      </c>
+      <c r="C21" s="2">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>125</v>
+      </c>
+      <c r="B22" s="2">
+        <v>164</v>
+      </c>
+      <c r="C22" s="2">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>121</v>
+      </c>
+      <c r="B23" s="2">
+        <v>164</v>
+      </c>
+      <c r="C23" s="2">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>121</v>
+      </c>
+      <c r="B24" s="2">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>116</v>
+      </c>
+      <c r="B26" s="2">
+        <v>162</v>
+      </c>
+      <c r="C26" s="2">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2">
+        <v>162</v>
+      </c>
+      <c r="C27" s="2">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>132</v>
+      </c>
+      <c r="B28" s="2">
+        <v>162</v>
+      </c>
+      <c r="C28" s="2">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>138</v>
+      </c>
+      <c r="B29" s="2">
+        <v>162</v>
+      </c>
+      <c r="C29" s="2">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2">
+        <v>159</v>
+      </c>
+      <c r="C30" s="2">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2">
+        <v>156</v>
+      </c>
+      <c r="C31" s="2">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="2">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -1906,7 +4059,7 @@
         <v>-0</v>
       </c>
       <c r="B6" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
@@ -1915,18 +4068,18 @@
         <v>100</v>
       </c>
       <c r="E6" s="2">
-        <v>29766</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2">
-        <v>886002</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
@@ -1935,10 +4088,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="2">
-        <v>29769</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2">
-        <v>886007</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1946,7 +4099,7 @@
         <v>-0</v>
       </c>
       <c r="B8" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>
@@ -1955,18 +4108,18 @@
         <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>29770</v>
+        <v>139</v>
       </c>
       <c r="F8" s="2">
-        <v>886010</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>68</v>
+        <v>-0</v>
       </c>
       <c r="B9" s="2">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
@@ -1975,18 +4128,18 @@
         <v>100</v>
       </c>
       <c r="E9" s="2">
-        <v>29771</v>
+        <v>151</v>
       </c>
       <c r="F9" s="2">
-        <v>886014</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>60</v>
@@ -1995,18 +4148,18 @@
         <v>100</v>
       </c>
       <c r="E10" s="2">
-        <v>29777</v>
+        <v>155</v>
       </c>
       <c r="F10" s="2">
-        <v>886022</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>58</v>
+        <v>-0</v>
       </c>
       <c r="B11" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2">
         <v>60</v>
@@ -2015,10 +4168,10 @@
         <v>100</v>
       </c>
       <c r="E11" s="2">
-        <v>29783</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>886038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2026,7 +4179,7 @@
         <v>-0</v>
       </c>
       <c r="B12" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2">
         <v>60</v>
@@ -2035,18 +4188,18 @@
         <v>100</v>
       </c>
       <c r="E12" s="2">
-        <v>29783</v>
+        <v>209</v>
       </c>
       <c r="F12" s="2">
-        <v>886041</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
@@ -2055,18 +4208,18 @@
         <v>100</v>
       </c>
       <c r="E13" s="2">
-        <v>29785</v>
+        <v>220</v>
       </c>
       <c r="F13" s="2">
-        <v>886043</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>-0</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2">
         <v>60</v>
@@ -2075,18 +4228,18 @@
         <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>29786</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2">
-        <v>886047</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2">
         <v>60</v>
@@ -2095,10 +4248,10 @@
         <v>100</v>
       </c>
       <c r="E15" s="2">
-        <v>29790</v>
+        <v>240</v>
       </c>
       <c r="F15" s="2">
-        <v>886047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2106,7 +4259,7 @@
         <v>-0</v>
       </c>
       <c r="B16" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2">
         <v>60</v>
@@ -2115,18 +4268,18 @@
         <v>100</v>
       </c>
       <c r="E16" s="2">
-        <v>29793</v>
+        <v>242</v>
       </c>
       <c r="F16" s="2">
-        <v>886060</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2">
         <v>60</v>
@@ -2135,18 +4288,18 @@
         <v>100</v>
       </c>
       <c r="E17" s="2">
-        <v>29795</v>
+        <v>245</v>
       </c>
       <c r="F17" s="2">
-        <v>886064</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2">
         <v>60</v>
@@ -2155,18 +4308,18 @@
         <v>100</v>
       </c>
       <c r="E18" s="2">
-        <v>29795</v>
+        <v>248</v>
       </c>
       <c r="F18" s="2">
-        <v>886064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
@@ -2175,18 +4328,18 @@
         <v>100</v>
       </c>
       <c r="E19" s="2">
-        <v>29797</v>
+        <v>252</v>
       </c>
       <c r="F19" s="2">
-        <v>886068</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
@@ -2195,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="2">
-        <v>29798</v>
+        <v>254</v>
       </c>
       <c r="F20" s="2">
-        <v>886070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2206,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2">
         <v>60</v>
@@ -2215,10 +4368,10 @@
         <v>100</v>
       </c>
       <c r="E21" s="2">
-        <v>29799</v>
+        <v>255</v>
       </c>
       <c r="F21" s="2">
-        <v>886071</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2226,7 +4379,7 @@
         <v>-0</v>
       </c>
       <c r="B22" s="2">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2">
         <v>60</v>
@@ -2235,19 +4388,179 @@
         <v>100</v>
       </c>
       <c r="E22" s="2">
-        <v>29804</v>
+        <v>257</v>
       </c>
       <c r="F22" s="2">
-        <v>886082</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2">
+        <v>159</v>
+      </c>
+      <c r="C23" s="2">
+        <v>60</v>
+      </c>
       <c r="D23" s="2">
         <v>100</v>
       </c>
+      <c r="E23" s="2">
+        <v>258</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1069</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2">
+        <v>159</v>
+      </c>
+      <c r="C24" s="2">
+        <v>60</v>
+      </c>
       <c r="D24" s="2">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>260</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2">
+        <v>160</v>
+      </c>
+      <c r="C25" s="2">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2">
+        <v>261</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2">
+        <v>177</v>
+      </c>
+      <c r="C26" s="2">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2">
+        <v>280</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2">
+        <v>172</v>
+      </c>
+      <c r="C27" s="2">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2">
+        <v>285</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2">
+        <v>169</v>
+      </c>
+      <c r="C28" s="2">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2">
+        <v>291</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>111</v>
+      </c>
+      <c r="B29" s="2">
+        <v>170</v>
+      </c>
+      <c r="C29" s="2">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2">
+        <v>293</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2">
+        <v>170</v>
+      </c>
+      <c r="C30" s="2">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2">
+        <v>294</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="D31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="2">
         <v>100</v>
       </c>
     </row>

--- a/performance_report.xlsx
+++ b/performance_report.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="性能数据详情" sheetId="1" r:id="rId1"/>
-    <sheet name="emulator-5554" sheetId="2" r:id="rId2"/>
-    <sheet name="810EBME4DAN4" sheetId="3" r:id="rId3"/>
+    <sheet name="崩溃日志" sheetId="2" r:id="rId2"/>
+    <sheet name="emulator-5556" sheetId="3" r:id="rId3"/>
+    <sheet name="emulator-5554" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -75,13 +76,13 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t xml:space="preserve">vivo v3_x000D__x000D_
-_vivo_x000D__x000D_
+    <t xml:space="preserve">sm-j700f_x000D__x000D_
+_samsung_x000D__x000D_
 _5.1.1_x000D__x000D_
 </t>
   </si>
   <si>
-    <t>2核</t>
+    <t>1核</t>
   </si>
   <si>
     <t>2021M</t>
@@ -93,19 +94,19 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>151秒</t>
+    <t>174秒</t>
   </si>
   <si>
-    <t>236%</t>
+    <t>3174%</t>
   </si>
   <si>
-    <t>114%</t>
+    <t>325%</t>
   </si>
   <si>
-    <t>174M</t>
+    <t>124M</t>
   </si>
   <si>
-    <t>75M</t>
+    <t>58M</t>
   </si>
   <si>
     <t>60.0</t>
@@ -114,43 +115,35 @@
     <t>0KB</t>
   </si>
   <si>
-    <t xml:space="preserve">m2 note_x000D__x000D_
-_Meizu_x000D__x000D_
-_5.1_x000D__x000D_
+    <t xml:space="preserve">vivo v3_x000D__x000D_
+_vivo_x000D__x000D_
+_5.1.1_x000D__x000D_
 </t>
   </si>
   <si>
-    <t>1913M</t>
+    <t>2核</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1080x1920</t>
+    <t>191秒</t>
   </si>
   <si>
-    <t>159秒</t>
+    <t>11604%</t>
   </si>
   <si>
-    <t>122%</t>
+    <t>587%</t>
   </si>
   <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>177M</t>
+    <t>176M</t>
   </si>
   <si>
     <t>77M</t>
   </si>
   <si>
-    <t>209KB</t>
+    <t>崩溃统计日志</t>
   </si>
   <si>
-    <t>1017KB</t>
-  </si>
-  <si>
-    <t>9KB</t>
-  </si>
-  <si>
-    <t>33KB</t>
+    <t xml:space="preserve">ANR in com.jieshun.jslife (com.jieshun.jslife/.activity.common.MainFragmentActivity)
+</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -278,102 +271,108 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$A$1:$A$31</c:f>
+              <c:f>emulator-5556!$A$1:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>236</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>3174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>236</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>137</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>115</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>119</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>125</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>121</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>117</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>116</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>132</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>138</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>141</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>108</c:v>
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,10 +457,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$C$1:$C$30</c:f>
+              <c:f>emulator-5554!$C$1:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -550,6 +549,33 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -635,99 +661,126 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$E$1:$E$30</c:f>
+              <c:f>emulator-5554!$E$1:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>151</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>209</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>220</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>228</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>240</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>242</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>245</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>254</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>255</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>258</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>260</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>261</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>280</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>291</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>293</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>294</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,99 +865,126 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$F$1:$F$30</c:f>
+              <c:f>emulator-5554!$F$1:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>219</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>251</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>504</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>553</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1026</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1030</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1054</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1059</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1062</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1064</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1069</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1069</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1076</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1078</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1129</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1138</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,102 +1069,108 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$B$1:$B$31</c:f>
+              <c:f>emulator-5556!$B$1:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>111</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>172</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>174</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>171</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>168</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>164</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>164</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>164</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>164</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>163</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>162</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>162</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>162</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>162</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>162</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>159</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>156</c:v>
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,10 +1255,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$D$1:$D$33</c:f>
+              <c:f>emulator-5556!$D$1:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1270,6 +1356,12 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1355,10 +1447,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$C$1:$C$31</c:f>
+              <c:f>emulator-5556!$C$1:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1450,6 +1542,12 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1535,10 +1633,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$E$1:$E$31</c:f>
+              <c:f>emulator-5556!$E$1:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1630,6 +1728,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1715,10 +1819,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$F$1:$F$31</c:f>
+              <c:f>emulator-5556!$F$1:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1810,6 +1914,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1895,98 +2005,125 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$A$1:$A$30</c:f>
+              <c:f>emulator-5554!$A$1:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8603</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="37">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
@@ -2072,99 +2209,126 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$B$1:$B$30</c:f>
+              <c:f>emulator-5554!$B$1:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>98</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>139</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="27">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>170</c:v>
+                <c:pt idx="37">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,10 +2413,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$D$1:$D$32</c:f>
+              <c:f>emulator-5554!$D$1:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2347,6 +2511,33 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2404,13 +2595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2434,13 +2625,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2464,13 +2655,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2494,13 +2685,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2524,13 +2715,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2554,13 +2745,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2589,13 +2780,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2619,13 +2810,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2649,13 +2840,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2679,13 +2870,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2709,13 +2900,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2739,13 +2930,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3218,31 +3409,31 @@
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>29</v>
@@ -3257,16 +3448,16 @@
         <v>100</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1"/>
@@ -3288,7 +3479,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3304,30 +3523,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
@@ -3344,10 +3563,10 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -3364,10 +3583,10 @@
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -3384,10 +3603,10 @@
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
@@ -3404,10 +3623,10 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>25</v>
+        <v>3174</v>
       </c>
       <c r="B6" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
@@ -3424,10 +3643,10 @@
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="B7" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
@@ -3444,10 +3663,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>30</v>
+        <v>496</v>
       </c>
       <c r="B8" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>
@@ -3464,10 +3683,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="B9" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
@@ -3484,10 +3703,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="B10" s="2">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2">
         <v>60</v>
@@ -3504,10 +3723,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2">
         <v>60</v>
@@ -3524,10 +3743,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2">
         <v>60</v>
@@ -3544,10 +3763,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
@@ -3564,10 +3783,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2">
         <v>60</v>
@@ -3584,10 +3803,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2">
         <v>60</v>
@@ -3604,10 +3823,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="B16" s="2">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2">
         <v>60</v>
@@ -3624,10 +3843,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2">
         <v>60</v>
@@ -3644,10 +3863,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B18" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2">
         <v>60</v>
@@ -3664,10 +3883,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
@@ -3684,10 +3903,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
@@ -3704,10 +3923,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2">
         <v>60</v>
@@ -3724,10 +3943,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B22" s="2">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2">
         <v>60</v>
@@ -3744,10 +3963,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>121</v>
+        <v>519</v>
       </c>
       <c r="B23" s="2">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
@@ -3764,10 +3983,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2">
         <v>60</v>
@@ -3784,10 +4003,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>117</v>
+        <v>566</v>
       </c>
       <c r="B25" s="2">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C25" s="2">
         <v>60</v>
@@ -3804,10 +4023,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>116</v>
+        <v>519</v>
       </c>
       <c r="B26" s="2">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2">
         <v>60</v>
@@ -3824,10 +4043,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
+        <v>505</v>
+      </c>
+      <c r="B27" s="2">
         <v>122</v>
-      </c>
-      <c r="B27" s="2">
-        <v>162</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
@@ -3844,10 +4063,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>132</v>
+        <v>397</v>
       </c>
       <c r="B28" s="2">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2">
         <v>60</v>
@@ -3864,10 +4083,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>138</v>
+        <v>451</v>
       </c>
       <c r="B29" s="2">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2">
         <v>60</v>
@@ -3884,10 +4103,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>141</v>
+        <v>349</v>
       </c>
       <c r="B30" s="2">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2">
         <v>60</v>
@@ -3904,10 +4123,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="B31" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2">
         <v>60</v>
@@ -3923,12 +4142,52 @@
       </c>
     </row>
     <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>123</v>
+      </c>
+      <c r="B32" s="2">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2">
+        <v>60</v>
+      </c>
       <c r="D32" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="4:4">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2">
+        <v>123</v>
+      </c>
+      <c r="C33" s="2">
+        <v>60</v>
+      </c>
       <c r="D33" s="2">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="D35" s="2">
         <v>100</v>
       </c>
     </row>
@@ -3938,9 +4197,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3956,30 +4215,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
@@ -3988,18 +4247,18 @@
         <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -4008,18 +4267,18 @@
         <v>100</v>
       </c>
       <c r="E3" s="2">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -4028,18 +4287,18 @@
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
@@ -4048,18 +4307,18 @@
         <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>-0</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
@@ -4068,18 +4327,18 @@
         <v>100</v>
       </c>
       <c r="E6" s="2">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
@@ -4088,18 +4347,18 @@
         <v>100</v>
       </c>
       <c r="E7" s="2">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>-0</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>
@@ -4108,18 +4367,18 @@
         <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>-0</v>
+        <v>154</v>
       </c>
       <c r="B9" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
@@ -4128,18 +4387,18 @@
         <v>100</v>
       </c>
       <c r="E9" s="2">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2">
         <v>60</v>
@@ -4148,18 +4407,18 @@
         <v>100</v>
       </c>
       <c r="E10" s="2">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>-0</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2">
         <v>60</v>
@@ -4176,10 +4435,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>-0</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2">
         <v>60</v>
@@ -4188,18 +4447,18 @@
         <v>100</v>
       </c>
       <c r="E12" s="2">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
@@ -4208,18 +4467,18 @@
         <v>100</v>
       </c>
       <c r="E13" s="2">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2">
         <v>60</v>
@@ -4228,18 +4487,18 @@
         <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2">
         <v>60</v>
@@ -4248,18 +4507,18 @@
         <v>100</v>
       </c>
       <c r="E15" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>-0</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2">
         <v>60</v>
@@ -4268,18 +4527,18 @@
         <v>100</v>
       </c>
       <c r="E16" s="2">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2">
         <v>60</v>
@@ -4288,18 +4547,18 @@
         <v>100</v>
       </c>
       <c r="E17" s="2">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2">
         <v>60</v>
@@ -4308,18 +4567,18 @@
         <v>100</v>
       </c>
       <c r="E18" s="2">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
@@ -4328,18 +4587,18 @@
         <v>100</v>
       </c>
       <c r="E19" s="2">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
@@ -4348,18 +4607,18 @@
         <v>100</v>
       </c>
       <c r="E20" s="2">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2">
         <v>60</v>
@@ -4368,18 +4627,18 @@
         <v>100</v>
       </c>
       <c r="E21" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>-0</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2">
         <v>60</v>
@@ -4388,18 +4647,18 @@
         <v>100</v>
       </c>
       <c r="E22" s="2">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>1069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
@@ -4408,18 +4667,18 @@
         <v>100</v>
       </c>
       <c r="E23" s="2">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>35</v>
+        <v>8603</v>
       </c>
       <c r="B24" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2">
         <v>60</v>
@@ -4428,18 +4687,18 @@
         <v>100</v>
       </c>
       <c r="E24" s="2">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2">
         <v>60</v>
@@ -4448,18 +4707,18 @@
         <v>100</v>
       </c>
       <c r="E25" s="2">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2">
         <v>60</v>
@@ -4468,18 +4727,18 @@
         <v>100</v>
       </c>
       <c r="E26" s="2">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
@@ -4488,18 +4747,18 @@
         <v>100</v>
       </c>
       <c r="E27" s="2">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>1129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2">
         <v>60</v>
@@ -4508,18 +4767,18 @@
         <v>100</v>
       </c>
       <c r="E28" s="2">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2">
         <v>60</v>
@@ -4528,39 +4787,219 @@
         <v>100</v>
       </c>
       <c r="E29" s="2">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2">
+        <v>164</v>
+      </c>
+      <c r="C30" s="2">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2">
+        <v>162</v>
+      </c>
+      <c r="C31" s="2">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2">
+        <v>162</v>
+      </c>
+      <c r="C32" s="2">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2">
+        <v>161</v>
+      </c>
+      <c r="C33" s="2">
+        <v>60</v>
+      </c>
+      <c r="D33" s="2">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>11604</v>
+      </c>
+      <c r="B34" s="2">
+        <v>159</v>
+      </c>
+      <c r="C34" s="2">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2">
+        <v>159</v>
+      </c>
+      <c r="C35" s="2">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>160</v>
+      </c>
+      <c r="C36" s="2">
+        <v>60</v>
+      </c>
+      <c r="D36" s="2">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>160</v>
+      </c>
+      <c r="C37" s="2">
+        <v>60</v>
+      </c>
+      <c r="D37" s="2">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>167</v>
+      </c>
+      <c r="B38" s="2">
+        <v>165</v>
+      </c>
+      <c r="C38" s="2">
+        <v>60</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
         <v>67</v>
       </c>
-      <c r="B30" s="2">
-        <v>170</v>
-      </c>
-      <c r="C30" s="2">
-        <v>60</v>
-      </c>
-      <c r="D30" s="2">
-        <v>100</v>
-      </c>
-      <c r="E30" s="2">
-        <v>294</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="D31" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="D32" s="2">
+      <c r="B39" s="2">
+        <v>163</v>
+      </c>
+      <c r="C39" s="2">
+        <v>60</v>
+      </c>
+      <c r="D39" s="2">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="D40" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="D41" s="2">
         <v>100</v>
       </c>
     </row>

--- a/performance_report.xlsx
+++ b/performance_report.xlsx
@@ -8,14 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="性能数据详情" sheetId="1" r:id="rId1"/>
-    <sheet name="emulator-5554" sheetId="2" r:id="rId2"/>
+    <sheet name="崩溃日志" sheetId="2" r:id="rId2"/>
+    <sheet name="810EBME4DAN4" sheetId="3" r:id="rId3"/>
+    <sheet name="emulator-5554" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -74,43 +76,81 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t xml:space="preserve">vivo v3_x000D__x000D_
-_vivo_x000D__x000D_
+    <t xml:space="preserve">m2 note_x000D__x000D_
+_Meizu_x000D__x000D_
+_5.1_x000D__x000D_
+</t>
+  </si>
+  <si>
+    <t>2核</t>
+  </si>
+  <si>
+    <t>1913M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080x1920</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>12秒</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>163M</t>
+  </si>
+  <si>
+    <t>72M</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>0KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo r11 plus_x000D__x000D_
+_oppo_x000D__x000D_
 _5.1.1_x000D__x000D_
 </t>
   </si>
   <si>
-    <t>2核</t>
-  </si>
-  <si>
     <t>2021M</t>
   </si>
   <si>
     <t xml:space="preserve"> 720x1280</t>
   </si>
   <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>22秒</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>46M</t>
-  </si>
-  <si>
-    <t>23M</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>0KB</t>
+    <t>74秒</t>
+  </si>
+  <si>
+    <t>231%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>128M</t>
+  </si>
+  <si>
+    <t>56M</t>
+  </si>
+  <si>
+    <t>崩溃统计日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANR in com.android.systemui
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANR in com.jieshun.jslife (com.jieshun.jslife/.activity.common.MainFragmentActivity)
+</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -238,10 +278,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$A$1:$A$5</c:f>
+              <c:f>810EBME4DAN4!$A$1:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -249,13 +289,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,6 +340,357 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>fps使用情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>emulator-5554!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>上行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>emulator-5554!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>下行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>emulator-5554!$F$1:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
@@ -340,24 +725,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$B$1:$B$5</c:f>
+              <c:f>810EBME4DAN4!$B$1:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,10 +821,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$D$1:$D$6</c:f>
+              <c:f>810EBME4DAN4!$D$1:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -459,9 +838,6 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -547,10 +923,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$C$1:$C$5</c:f>
+              <c:f>810EBME4DAN4!$C$1:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -558,12 +934,6 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -649,10 +1019,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$E$1:$E$5</c:f>
+              <c:f>810EBME4DAN4!$E$1:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -660,12 +1030,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -751,10 +1115,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$F$1:$F$5</c:f>
+              <c:f>810EBME4DAN4!$F$1:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -762,12 +1126,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -819,19 +1177,376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>cpu使用率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>emulator-5554!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>内存使用MB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>emulator-5554!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>电池剩余%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>emulator-5554!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -855,13 +1570,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -885,13 +1600,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -915,13 +1630,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -945,13 +1660,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -975,13 +1690,198 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1449,7 +2349,62 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1"/>
+    <row r="4" spans="1:18" ht="30" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="5" spans="1:18" ht="30" customHeight="1"/>
     <row r="6" spans="1:18" ht="30" customHeight="1"/>
     <row r="7" spans="1:18" ht="30" customHeight="1"/>
@@ -1469,6 +2424,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1485,22 +2468,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
@@ -1508,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
@@ -1525,10 +2508,10 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -1544,53 +2527,251 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="2">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2">
-        <v>60</v>
-      </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
       <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1"/>
     <row r="7" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="2">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="2">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="2">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>231</v>
+      </c>
+      <c r="B9" s="2">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/performance_report.xlsx
+++ b/performance_report.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="性能数据详情" sheetId="1" r:id="rId1"/>
-    <sheet name="崩溃日志" sheetId="2" r:id="rId2"/>
+    <sheet name="emulator-5554" sheetId="2" r:id="rId2"/>
     <sheet name="810EBME4DAN4" sheetId="3" r:id="rId3"/>
-    <sheet name="emulator-5554" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -74,6 +73,42 @@
   </si>
   <si>
     <t>下行流量均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oppo r11 plus_x000D__x000D_
+_oppo_x000D__x000D_
+_5.1.1_x000D__x000D_
+</t>
+  </si>
+  <si>
+    <t>2核</t>
+  </si>
+  <si>
+    <t>2021M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720x1280</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>9秒</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>131M</t>
+  </si>
+  <si>
+    <t>67M</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>0KB</t>
   </si>
   <si>
     <t xml:space="preserve">m2 note_x000D__x000D_
@@ -82,75 +117,22 @@
 </t>
   </si>
   <si>
-    <t>2核</t>
-  </si>
-  <si>
     <t>1913M</t>
   </si>
   <si>
     <t xml:space="preserve"> 1080x1920</t>
   </si>
   <si>
-    <t>WiFi</t>
-  </si>
-  <si>
-    <t>12秒</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>163M</t>
-  </si>
-  <si>
-    <t>72M</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>0KB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oppo r11 plus_x000D__x000D_
-_oppo_x000D__x000D_
-_5.1.1_x000D__x000D_
-</t>
-  </si>
-  <si>
-    <t>2021M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 720x1280</t>
-  </si>
-  <si>
-    <t>74秒</t>
-  </si>
-  <si>
-    <t>231%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>128M</t>
-  </si>
-  <si>
-    <t>56M</t>
-  </si>
-  <si>
-    <t>崩溃统计日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANR in com.android.systemui
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANR in com.jieshun.jslife (com.jieshun.jslife/.activity.common.MainFragmentActivity)
-</t>
+    <t>11秒</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>157M</t>
+  </si>
+  <si>
+    <t>66M</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -278,7 +260,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$A$1:$A$3</c:f>
+              <c:f>emulator-5554!$A$1:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -286,10 +268,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,10 +356,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$C$1:$C$10</c:f>
+              <c:f>810EBME4DAN4!$C$1:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -385,27 +367,6 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -491,10 +452,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$E$1:$E$10</c:f>
+              <c:f>810EBME4DAN4!$E$1:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -502,27 +463,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -608,10 +548,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$F$1:$F$10</c:f>
+              <c:f>810EBME4DAN4!$F$1:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -619,27 +559,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -725,7 +644,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$B$1:$B$3</c:f>
+              <c:f>emulator-5554!$B$1:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -733,10 +652,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,7 +740,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$D$1:$D$5</c:f>
+              <c:f>emulator-5554!$D$1:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -923,7 +842,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$C$1:$C$3</c:f>
+              <c:f>emulator-5554!$C$1:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1019,7 +938,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$E$1:$E$3</c:f>
+              <c:f>emulator-5554!$E$1:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1115,7 +1034,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$F$1:$F$3</c:f>
+              <c:f>emulator-5554!$F$1:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1211,39 +1130,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$A$1:$A$10</c:f>
+              <c:f>810EBME4DAN4!$A$1:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
+                  <c:v>-0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,39 +1226,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$B$1:$B$10</c:f>
+              <c:f>810EBME4DAN4!$B$1:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>112</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,45 +1322,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$D$1:$D$12</c:f>
+              <c:f>810EBME4DAN4!$D$1:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1725,13 +1581,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1755,13 +1611,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1785,13 +1641,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1815,13 +1671,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1845,13 +1701,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1875,13 +1731,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2316,19 +2172,19 @@
         <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>100</v>
@@ -2337,72 +2193,72 @@
         <v>100</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2">
+        <v>96</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2">
-        <v>100</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1"/>
@@ -2424,29 +2280,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="2">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1"/>
+    <row r="7" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2468,22 +2390,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
@@ -2491,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -2508,16 +2430,16 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>88</v>
+        <v>-0</v>
       </c>
       <c r="B3" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2528,12 +2450,12 @@
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="D4" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="D5" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1"/>
@@ -2542,236 +2464,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="2">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>128</v>
-      </c>
-      <c r="C3" s="2">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="2">
-        <v>81</v>
-      </c>
-      <c r="B5" s="2">
-        <v>107</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="2">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2">
-        <v>104</v>
-      </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2">
-        <v>104</v>
-      </c>
-      <c r="C8" s="2">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>231</v>
-      </c>
-      <c r="B9" s="2">
-        <v>118</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>69</v>
-      </c>
-      <c r="B10" s="2">
-        <v>112</v>
-      </c>
-      <c r="C10" s="2">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/performance_report.xlsx
+++ b/performance_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -93,16 +93,19 @@
     <t>WiFi</t>
   </si>
   <si>
-    <t>9秒</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>131M</t>
-  </si>
-  <si>
-    <t>67M</t>
+    <t>42秒</t>
+  </si>
+  <si>
+    <t>110%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>156M</t>
+  </si>
+  <si>
+    <t>70M</t>
   </si>
   <si>
     <t>60.0</t>
@@ -117,22 +120,28 @@
 </t>
   </si>
   <si>
+    <t>3核</t>
+  </si>
+  <si>
     <t>1913M</t>
   </si>
   <si>
     <t xml:space="preserve"> 1080x1920</t>
   </si>
   <si>
-    <t>11秒</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>157M</t>
-  </si>
-  <si>
-    <t>66M</t>
+    <t>47秒</t>
+  </si>
+  <si>
+    <t>117%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>164M</t>
+  </si>
+  <si>
+    <t>88M</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -260,18 +269,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$A$1:$A$3</c:f>
+              <c:f>emulator-5554!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,10 +386,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$C$1:$C$3</c:f>
+              <c:f>810EBME4DAN4!$C$1:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -367,6 +397,27 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -452,10 +503,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$E$1:$E$3</c:f>
+              <c:f>810EBME4DAN4!$E$1:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -463,6 +514,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -548,10 +620,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$F$1:$F$3</c:f>
+              <c:f>810EBME4DAN4!$F$1:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -559,6 +631,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -644,18 +737,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$B$1:$B$3</c:f>
+              <c:f>emulator-5554!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131</c:v>
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,10 +854,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$D$1:$D$5</c:f>
+              <c:f>emulator-5554!$D$1:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -757,6 +871,27 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -842,10 +977,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$C$1:$C$3</c:f>
+              <c:f>emulator-5554!$C$1:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -853,6 +988,27 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -938,10 +1094,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$E$1:$E$3</c:f>
+              <c:f>emulator-5554!$E$1:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -949,6 +1105,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1034,10 +1211,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>emulator-5554!$F$1:$F$3</c:f>
+              <c:f>emulator-5554!$F$1:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1045,6 +1222,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1130,18 +1328,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$A$1:$A$3</c:f>
+              <c:f>810EBME4DAN4!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0</c:v>
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,18 +1445,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$B$1:$B$3</c:f>
+              <c:f>810EBME4DAN4!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157</c:v>
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,24 +1562,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>810EBME4DAN4!$D$1:$D$5</c:f>
+              <c:f>810EBME4DAN4!$D$1:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,13 +1657,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1426,13 +1687,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1456,13 +1717,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1486,13 +1747,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1516,13 +1777,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1546,13 +1807,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1581,13 +1842,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1611,13 +1872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1641,13 +1902,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1671,13 +1932,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1701,13 +1962,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1731,13 +1992,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2172,19 +2433,19 @@
         <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>100</v>
@@ -2193,72 +2454,72 @@
         <v>100</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1"/>
@@ -2280,7 +2541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2296,30 +2557,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
@@ -2336,10 +2597,10 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -2355,17 +2616,155 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
       <c r="D5" s="2">
         <v>100</v>
       </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1"/>
-    <row r="7" spans="1:6" ht="30" customHeight="1"/>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>127</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2">
+        <v>156</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2374,7 +2773,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2390,36 +2789,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -2430,16 +2829,16 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>-0</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2449,17 +2848,155 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="2">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
       <c r="D4" s="2">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="2">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2">
+        <v>163</v>
+      </c>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
       <c r="D5" s="2">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1"/>
-    <row r="7" spans="1:6" ht="30" customHeight="1"/>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="2">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2">
+        <v>162</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="2">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2">
+        <v>162</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2">
+        <v>163</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2">
+        <v>162</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
